--- a/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type2/pd_results_W20_H200_B32.xlsx
+++ b/final_project/gru_gbrbm_H_per_2 (drop 0.1)/type2/pd_results_W20_H200_B32.xlsx
@@ -502,25 +502,25 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.5342019543973942</v>
+        <v>0.554858934169279</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2692307692307692</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8961748633879781</v>
+        <v>0.9672131147540983</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04666666666666667</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="E2" t="n">
-        <v>0.5135135135135135</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="F2" t="n">
-        <v>0.669387755102041</v>
+        <v>0.7051792828685258</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4864864864864865</v>
+        <v>0.4924924924924925</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -528,19 +528,19 @@
         </is>
       </c>
       <c r="I2" t="n">
-        <v>0.04740906191066329</v>
+        <v>0.05297162804477835</v>
       </c>
       <c r="J2" t="n">
-        <v>626.009636510819</v>
+        <v>610.0337653110704</v>
       </c>
       <c r="K2" t="n">
-        <v>614247.1367153979</v>
+        <v>469020.6589300514</v>
       </c>
       <c r="L2" t="n">
-        <v>783.7392019769063</v>
+        <v>684.8508296921683</v>
       </c>
       <c r="M2" t="n">
-        <v>0.8857943371422456</v>
+        <v>0.9127959870785598</v>
       </c>
     </row>
   </sheetData>
